--- a/results/Evaluator.xlsx
+++ b/results/Evaluator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\repo\GingerPlantAnomaly\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E56CC4B-F36E-4431-B971-6C27D8E2D987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{554CC851-3232-42F8-9A53-9D1316BA685A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3567CD13-7E14-4EEC-8E62-AC625B703F45}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3567CD13-7E14-4EEC-8E62-AC625B703F45}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="581">
   <si>
     <t>Column1</t>
   </si>
@@ -1819,6 +1819,18 @@
   </si>
   <si>
     <t>0.169230769</t>
+  </si>
+  <si>
+    <t>2hours</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>1 Minutes</t>
+  </si>
+  <si>
+    <t>10 Minutes</t>
   </si>
 </sst>
 </file>
@@ -2025,6 +2037,57 @@
 </table>
 </file>
 
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{4520FE48-7DD0-4184-A218-92F21D576F94}" name="Table21" displayName="Table21" ref="G2:K11" totalsRowShown="0">
+  <autoFilter ref="G2:K11" xr:uid="{4520FE48-7DD0-4184-A218-92F21D576F94}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:K11">
+    <sortCondition ref="H2:H11"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{882B7152-C2EF-4564-904D-FD3D5B5CE879}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{003E1059-B0F3-4F9E-89B5-6B8A123BA78C}" name="Accuracy"/>
+    <tableColumn id="3" xr3:uid="{926371BC-3B2B-46B9-BF2C-716DEF24EFDA}" name="Precision"/>
+    <tableColumn id="4" xr3:uid="{08740A67-5019-4BB9-B5AB-E66CD0685CCE}" name="Recall"/>
+    <tableColumn id="5" xr3:uid="{91B813A5-4BCE-4981-8B8B-D5AD60FA8503}" name="F1-score"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{1604E0FD-32A7-4945-9176-93BC0CBA670F}" name="Table25" displayName="Table25" ref="M2:Q11" totalsRowShown="0">
+  <autoFilter ref="M2:Q11" xr:uid="{1604E0FD-32A7-4945-9176-93BC0CBA670F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M3:Q11">
+    <sortCondition descending="1" ref="N2:N11"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{FC6E1FAD-1612-4FB4-A843-7737AFDBEF94}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{86C975FF-B968-4D76-B2B3-1ADBD21930E3}" name="Accuracy"/>
+    <tableColumn id="3" xr3:uid="{59694D87-9DD4-4A54-B9A3-F6BF9CD7AF02}" name="Precision"/>
+    <tableColumn id="4" xr3:uid="{EC20DAE6-EE97-4E8C-9AA6-DAD69EF88426}" name="Recall"/>
+    <tableColumn id="5" xr3:uid="{C37821EE-C4C9-4B55-95A4-D83C939CD18F}" name="F1-score"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{B9A8768E-BBB6-4379-9339-EA344C670FAC}" name="Table26" displayName="Table26" ref="G16:K25" totalsRowShown="0">
+  <autoFilter ref="G16:K25" xr:uid="{B9A8768E-BBB6-4379-9339-EA344C670FAC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G17:K25">
+    <sortCondition descending="1" ref="H16:H25"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{459EB6C3-1E4A-4397-8E73-806015950481}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{0D976ACB-829D-4B34-9C4C-35B95811EC8E}" name="Accuracy"/>
+    <tableColumn id="3" xr3:uid="{69885CD5-EDD6-4C00-A507-7EB51981F729}" name="Precision"/>
+    <tableColumn id="4" xr3:uid="{51E13A84-C356-48ED-BA36-A037565715C0}" name="Recall"/>
+    <tableColumn id="5" xr3:uid="{3850B746-CC3E-455B-BFBD-18F909EA07D2}" name="F1-score"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2D07F19-B00C-4CAF-A48B-93FFB24A4699}" name="Table3" displayName="Table3" ref="G1:K10" totalsRowShown="0">
   <autoFilter ref="G1:K10" xr:uid="{D2D07F19-B00C-4CAF-A48B-93FFB24A4699}"/>
@@ -2037,6 +2100,23 @@
     <tableColumn id="3" xr3:uid="{143CD431-0B6E-4DD3-A9B3-38FC95FFF972}" name="Column2"/>
     <tableColumn id="4" xr3:uid="{58442D7D-0691-48D3-AFD8-987C6EF0CCFB}" name="Column3"/>
     <tableColumn id="5" xr3:uid="{4F470AFE-B8FE-4906-8AE0-F762C8BFAD72}" name="Column4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{2E586158-7E35-41B8-B422-90FE9E87B80B}" name="Table28" displayName="Table28" ref="M16:Q25" totalsRowShown="0">
+  <autoFilter ref="M16:Q25" xr:uid="{2E586158-7E35-41B8-B422-90FE9E87B80B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M17:Q25">
+    <sortCondition descending="1" ref="N16:N25"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{08758837-FF52-4642-9330-F2F58F97D750}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{7FC6B382-0E81-43F8-9EDC-C06B2D068F24}" name="Accuracy"/>
+    <tableColumn id="3" xr3:uid="{296265C2-E91D-4237-A9AC-070BE4F63D1F}" name="Precision"/>
+    <tableColumn id="4" xr3:uid="{5637FC1A-A351-4AB0-9DD2-375F3E217987}" name="Recall"/>
+    <tableColumn id="5" xr3:uid="{CF862921-FA1E-46B0-A009-0CD615EA0223}" name="F1-score"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2480,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA808851-4AC1-4593-B80B-5A89A2B0C0C3}">
   <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12681,11 +12761,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295A9662-9E49-4631-A088-702DC44BBDE5}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -12706,8 +12794,14 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
+      <c r="H1" t="s">
+        <v>579</v>
+      </c>
       <c r="M1" t="s">
         <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -12759,19 +12853,19 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
         <v>36</v>
@@ -12794,19 +12888,19 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
         <v>11</v>
@@ -12841,19 +12935,19 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
         <v>41</v>
@@ -12888,19 +12982,19 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
         <v>16</v>
@@ -12935,7 +13029,7 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -12950,19 +13044,19 @@
         <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -12982,34 +13076,34 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="P8" t="s">
         <v>14</v>
       </c>
       <c r="Q8" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -13029,19 +13123,19 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
         <v>20</v>
@@ -13076,19 +13170,19 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
         <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M10" t="s">
         <v>46</v>
@@ -13123,19 +13217,19 @@
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
         <v>25</v>
@@ -13194,8 +13288,14 @@
       <c r="G15" t="s">
         <v>67</v>
       </c>
+      <c r="H15" t="s">
+        <v>578</v>
+      </c>
       <c r="M15" t="s">
         <v>79</v>
+      </c>
+      <c r="N15" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -13559,19 +13659,19 @@
         <v>24</v>
       </c>
       <c r="M23" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N23" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="O23" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="Q23" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -13591,51 +13691,51 @@
         <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="J24" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="M24" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N24" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="O24" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="P24" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="M25" t="s">
         <v>25</v>
@@ -13971,5 +14071,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B5:E46 L17:L25 L3:L11 H12:Q14 H3:K11 H17:K25 M3:Q11 M17:Q25 H16:Q16 I15:M15 O15:Q15" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>